--- a/ig/amelioration-mapping/StructureDefinition-ror-location-supported-capacity.xlsx
+++ b/ig/amelioration-mapping/StructureDefinition-ror-location-supported-capacity.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-12T09:47:28+00:00</t>
+    <t>2024-01-19T15:31:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/amelioration-mapping/StructureDefinition-ror-location-supported-capacity.xlsx
+++ b/ig/amelioration-mapping/StructureDefinition-ror-location-supported-capacity.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-19T15:31:36+00:00</t>
+    <t>2024-01-22T16:15:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/amelioration-mapping/StructureDefinition-ror-location-supported-capacity.xlsx
+++ b/ig/amelioration-mapping/StructureDefinition-ror-location-supported-capacity.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-22T16:15:43+00:00</t>
+    <t>2024-01-24T16:02:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/amelioration-mapping/StructureDefinition-ror-location-supported-capacity.xlsx
+++ b/ig/amelioration-mapping/StructureDefinition-ror-location-supported-capacity.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-24T16:02:26+00:00</t>
+    <t>2024-02-06T12:55:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -321,7 +321,7 @@
     <t>capacityType</t>
   </si>
   <si>
-    <t>CapaciteAccueilOperationnelle.natureCapacite</t>
+    <t>CapaciteAccueilOperationnelle.natureCapacite : JDV-J187-NatureCapacite-ROR</t>
   </si>
   <si>
     <t>Extension.extension:capacityType.id</t>
@@ -396,7 +396,7 @@
     <t>capacityStatus</t>
   </si>
   <si>
-    <t>CapaciteAccueilOperationnelle.statutCapacite</t>
+    <t>CapaciteAccueilOperationnelle.statutCapacite : JDV-J188-TypeStatutCapacite-ROR</t>
   </si>
   <si>
     <t>Extension.extension:capacityStatus.id</t>
@@ -420,7 +420,7 @@
     <t>temporalityCapacity</t>
   </si>
   <si>
-    <t>CapaciteAccueilOperationnelle.temporaliteCapacite</t>
+    <t>CapaciteAccueilOperationnelle.temporaliteCapacite : JDV-J189-TemporaliteCapacite-ROR</t>
   </si>
   <si>
     <t>Extension.extension:temporalityCapacity.id</t>
@@ -469,7 +469,7 @@
     <t>capacitySourceType</t>
   </si>
   <si>
-    <t>CapaciteAccueilOperationnelle.typeSourceCapacite</t>
+    <t>CapaciteAccueilOperationnelle.typeSourceCapacite : JDV-J193-TypeSourceCapacite-ROR</t>
   </si>
   <si>
     <t>Extension.extension:capacitySourceType.id</t>
@@ -493,7 +493,7 @@
     <t>genderCapacityAvailable</t>
   </si>
   <si>
-    <t>CapaciteAccueilOperationnelle.genreCapaciteDispo</t>
+    <t>CapaciteAccueilOperationnelle.genreCapaciteDispo : JDV-J190-GenreCapacite-ROR</t>
   </si>
   <si>
     <t>Extension.extension:genderCapacityAvailable.id</t>
@@ -542,7 +542,7 @@
     <t>capacityClosingType</t>
   </si>
   <si>
-    <t>CapaciteAccueilOperationnelle.typeFermetureCapacite</t>
+    <t>CapaciteAccueilOperationnelle.typeFermetureCapacite : JDV-J191-TypeFermetureCapacite-ROR</t>
   </si>
   <si>
     <t>Extension.extension:capacityClosingType.id</t>
@@ -566,7 +566,7 @@
     <t>additionalBedType</t>
   </si>
   <si>
-    <t>CapaciteAccueilOperationnelle.typeLitsSupplementaire</t>
+    <t>CapaciteAccueilOperationnelle.typeLitsSupplementaire : JDV-J192-TypeLitSupplementaire-ROR</t>
   </si>
   <si>
     <t>Extension.extension:additionalBedType.id</t>
@@ -590,7 +590,7 @@
     <t>crisisType</t>
   </si>
   <si>
-    <t>CapaciteAccueilOperationnelle.typeCrise</t>
+    <t>CapaciteAccueilOperationnelle.typeCrise : JDV-J194-TypeCrise-ROR</t>
   </si>
   <si>
     <t>Extension.extension:crisisType.id</t>
@@ -614,7 +614,7 @@
     <t>temporaryAssignement</t>
   </si>
   <si>
-    <t>CapacitePriseCharge.affectationTemporaire</t>
+    <t>CapacitePriseCharge.affectationTemporaire : JDV-J195-AffectationTemporaire-ROR</t>
   </si>
   <si>
     <t>Extension.extension:temporaryAssignement.id</t>
@@ -989,7 +989,7 @@
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="83.625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="88.75390625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/ig/amelioration-mapping/StructureDefinition-ror-location-supported-capacity.xlsx
+++ b/ig/amelioration-mapping/StructureDefinition-ror-location-supported-capacity.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T12:55:52+00:00</t>
+    <t>2024-02-16T10:42:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
